--- a/data/pca/factorExposure/factorExposure_2009-07-01.xlsx
+++ b/data/pca/factorExposure/factorExposure_2009-07-01.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
   <si>
     <t>factor1</t>
   </si>
@@ -23,6 +23,12 @@
   </si>
   <si>
     <t>factor3</t>
+  </si>
+  <si>
+    <t>factor4</t>
+  </si>
+  <si>
+    <t>factor5</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -689,13 +695,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D104"/>
+  <dimension ref="A1:F104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:6">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -705,24 +711,36 @@
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>-0.01642932606840237</v>
+        <v>0.01629401169212938</v>
       </c>
       <c r="C2">
-        <v>-0.001291982433070026</v>
+        <v>0.00106654426817236</v>
       </c>
       <c r="D2">
-        <v>0.008175109775450124</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>-0.009454363782771622</v>
+      </c>
+      <c r="E2">
+        <v>0.001540469239731477</v>
+      </c>
+      <c r="F2">
+        <v>0.01223170537043488</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="B3">
         <v>0</v>
@@ -733,220 +751,316 @@
       <c r="D3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>0</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>-0.09041977633825084</v>
+        <v>0.09219160258190273</v>
       </c>
       <c r="C4">
-        <v>-0.01958731075131022</v>
+        <v>0.01468072957456583</v>
       </c>
       <c r="D4">
-        <v>0.07622847329927601</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>-0.08163176057269796</v>
+      </c>
+      <c r="E4">
+        <v>0.02630040665661419</v>
+      </c>
+      <c r="F4">
+        <v>-0.03172664140018071</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>0</v>
+        <v>8.345314624209498e-06</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1.141065215671196e-06</v>
       </c>
       <c r="D5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>6.326361791007456e-05</v>
+      </c>
+      <c r="E5">
+        <v>-6.043603260961516e-05</v>
+      </c>
+      <c r="F5">
+        <v>-4.796846395414392e-05</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>-0.1529588937151895</v>
+        <v>0.1614734030011771</v>
       </c>
       <c r="C6">
-        <v>-0.02958233035445696</v>
+        <v>0.02852361031408961</v>
       </c>
       <c r="D6">
-        <v>-0.0369571111288545</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>0.02695250547814225</v>
+      </c>
+      <c r="E6">
+        <v>0.009330777969456515</v>
+      </c>
+      <c r="F6">
+        <v>-0.04101911858768236</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>-0.05992614958342243</v>
+        <v>0.06189581172401772</v>
       </c>
       <c r="C7">
-        <v>-0.001784654746857638</v>
+        <v>-0.001646768874021401</v>
       </c>
       <c r="D7">
-        <v>0.04841195215610888</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>-0.05285075865625797</v>
+      </c>
+      <c r="E7">
+        <v>0.01266292495988722</v>
+      </c>
+      <c r="F7">
+        <v>-0.04953222860518008</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>-0.06180079212388807</v>
+        <v>0.0576248486286873</v>
       </c>
       <c r="C8">
-        <v>0.01050623024267286</v>
+        <v>-0.01231857794358485</v>
       </c>
       <c r="D8">
-        <v>0.02630202497712005</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>-0.03057215697780736</v>
+      </c>
+      <c r="E8">
+        <v>0.01740667478774221</v>
+      </c>
+      <c r="F8">
+        <v>0.02548806912614752</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>-0.06991678723990292</v>
+        <v>0.07146532301031559</v>
       </c>
       <c r="C9">
-        <v>-0.01598378480716466</v>
+        <v>0.01041506964079345</v>
       </c>
       <c r="D9">
-        <v>0.07710410517738653</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>-0.08487907831843189</v>
+      </c>
+      <c r="E9">
+        <v>0.02355052130099271</v>
+      </c>
+      <c r="F9">
+        <v>-0.04825937003240255</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>-0.08465031103645922</v>
+        <v>0.08734505716452391</v>
       </c>
       <c r="C10">
-        <v>-0.0146729547418198</v>
+        <v>0.02149433716510729</v>
       </c>
       <c r="D10">
-        <v>-0.1666652854911284</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
+        <v>0.1601413177782854</v>
+      </c>
+      <c r="E10">
+        <v>-0.03301022936875059</v>
+      </c>
+      <c r="F10">
+        <v>0.05878327234063611</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>-0.09112583127559175</v>
+        <v>0.08780072595583682</v>
       </c>
       <c r="C11">
-        <v>-0.01723108157856701</v>
+        <v>0.01136510565531197</v>
       </c>
       <c r="D11">
-        <v>0.110445009555779</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
+        <v>-0.1175948395401352</v>
+      </c>
+      <c r="E11">
+        <v>0.04792906248714111</v>
+      </c>
+      <c r="F11">
+        <v>-0.02447454416293922</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>-0.09587203372274163</v>
+        <v>0.09032376319172107</v>
       </c>
       <c r="C12">
-        <v>-0.01492866312083573</v>
+        <v>0.008543713025620807</v>
       </c>
       <c r="D12">
-        <v>0.1170104762489087</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
+        <v>-0.1322500109374147</v>
+      </c>
+      <c r="E12">
+        <v>0.04747273482684217</v>
+      </c>
+      <c r="F12">
+        <v>-0.03141676197351067</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>-0.04440006996986108</v>
+        <v>0.04362613425420647</v>
       </c>
       <c r="C13">
-        <v>-0.0062324400305192</v>
+        <v>0.002518077385957263</v>
       </c>
       <c r="D13">
-        <v>0.04433215426854414</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
+        <v>-0.05375809207312981</v>
+      </c>
+      <c r="E13">
+        <v>-0.0001984947397956189</v>
+      </c>
+      <c r="F13">
+        <v>-0.004413931750000921</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>-0.01894932565091357</v>
+        <v>0.02357613755487897</v>
       </c>
       <c r="C14">
-        <v>-0.01502107690336205</v>
+        <v>0.01372346119760845</v>
       </c>
       <c r="D14">
-        <v>0.02854182775771178</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
+        <v>-0.03214914953807343</v>
+      </c>
+      <c r="E14">
+        <v>0.0177881009732393</v>
+      </c>
+      <c r="F14">
+        <v>-0.01256177151441241</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>-0.03365723751932604</v>
+        <v>0.03370151840357606</v>
       </c>
       <c r="C15">
-        <v>-0.007489643985948253</v>
+        <v>0.005286819463797837</v>
       </c>
       <c r="D15">
-        <v>0.04316461859272502</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
+        <v>-0.04651771580572258</v>
+      </c>
+      <c r="E15">
+        <v>0.007760020563163899</v>
+      </c>
+      <c r="F15">
+        <v>-0.02982309011146379</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>-0.07459061745253524</v>
+        <v>0.07255957713113043</v>
       </c>
       <c r="C16">
-        <v>-0.007395392937307816</v>
+        <v>0.001527266855479442</v>
       </c>
       <c r="D16">
-        <v>0.1148046609339121</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4">
+        <v>-0.1282680304373703</v>
+      </c>
+      <c r="E16">
+        <v>0.06179222879924792</v>
+      </c>
+      <c r="F16">
+        <v>-0.02766247132663787</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>0</v>
+        <v>0.0004323487229009312</v>
       </c>
       <c r="C17">
-        <v>0</v>
+        <v>-0.000375370433583928</v>
       </c>
       <c r="D17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4">
+        <v>-0.00248062635977564</v>
+      </c>
+      <c r="E17">
+        <v>0.001540198651987308</v>
+      </c>
+      <c r="F17">
+        <v>0.002697568852972335</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>-0.02013817558473243</v>
+        <v>0.04027346270277161</v>
       </c>
       <c r="C18">
-        <v>0.002680466180830971</v>
+        <v>-0.002656185566548985</v>
       </c>
       <c r="D18">
-        <v>0.02294364964665176</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4">
+        <v>-0.01553724757610106</v>
+      </c>
+      <c r="E18">
+        <v>-0.006587347262236986</v>
+      </c>
+      <c r="F18">
+        <v>0.009869525908541791</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
       <c r="A19" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="B19">
         <v>0</v>
@@ -957,108 +1071,156 @@
       <c r="D19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:4">
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
       <c r="A20" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>-0.06285414315138479</v>
+        <v>0.06221109764641009</v>
       </c>
       <c r="C20">
-        <v>-0.005350724942717431</v>
+        <v>0.0009454564368300365</v>
       </c>
       <c r="D20">
-        <v>0.06949596081203821</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4">
+        <v>-0.0787837181540454</v>
+      </c>
+      <c r="E20">
+        <v>0.05743123832788447</v>
+      </c>
+      <c r="F20">
+        <v>-0.03015712680851972</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
       <c r="A21" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>-0.03808712134363912</v>
+        <v>0.04042086725430132</v>
       </c>
       <c r="C21">
-        <v>-0.009388339239023597</v>
+        <v>0.006249072267809969</v>
       </c>
       <c r="D21">
-        <v>0.03419561594751428</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4">
+        <v>-0.03684156530879149</v>
+      </c>
+      <c r="E21">
+        <v>-0.002057266299643147</v>
+      </c>
+      <c r="F21">
+        <v>0.02603975985193509</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
       <c r="A22" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B22">
-        <v>-0.04098669397621844</v>
+        <v>0.04437869896080308</v>
       </c>
       <c r="C22">
-        <v>-0.001729177499867385</v>
+        <v>0.001033781702289686</v>
       </c>
       <c r="D22">
-        <v>-0.0006264516989294316</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4">
+        <v>-0.00767570625727787</v>
+      </c>
+      <c r="E22">
+        <v>0.03847918650868625</v>
+      </c>
+      <c r="F22">
+        <v>0.0487257872689754</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
       <c r="A23" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="B23">
-        <v>-0.04094926109379343</v>
+        <v>0.04435449864362891</v>
       </c>
       <c r="C23">
-        <v>-0.00171864572239096</v>
+        <v>0.001024672363415791</v>
       </c>
       <c r="D23">
-        <v>-0.000602588991069133</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4">
+        <v>-0.007689840447236722</v>
+      </c>
+      <c r="E23">
+        <v>0.03866186161352372</v>
+      </c>
+      <c r="F23">
+        <v>0.04869752124709093</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6">
       <c r="A24" s="1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B24">
-        <v>-0.08197431188188149</v>
+        <v>0.07849544568641739</v>
       </c>
       <c r="C24">
-        <v>-0.008045861664990541</v>
+        <v>0.002303840039367142</v>
       </c>
       <c r="D24">
-        <v>0.1154236264936191</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4">
+        <v>-0.1203963952523528</v>
+      </c>
+      <c r="E24">
+        <v>0.04959639154452188</v>
+      </c>
+      <c r="F24">
+        <v>-0.02991650728161626</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
       <c r="A25" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="B25">
-        <v>-0.08714970739849821</v>
+        <v>0.08354316283998156</v>
       </c>
       <c r="C25">
-        <v>-0.0105836767804952</v>
+        <v>0.005012836788593155</v>
       </c>
       <c r="D25">
-        <v>0.1019018664471141</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4">
+        <v>-0.1096389086663625</v>
+      </c>
+      <c r="E25">
+        <v>0.03290231910778071</v>
+      </c>
+      <c r="F25">
+        <v>-0.02742563112385766</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
       <c r="A26" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B26">
-        <v>-0.05754415046940259</v>
+        <v>0.05975437210839927</v>
       </c>
       <c r="C26">
-        <v>-0.01751160948971446</v>
+        <v>0.01449530502449655</v>
       </c>
       <c r="D26">
-        <v>0.03104231150903894</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4">
+        <v>-0.04364451352175641</v>
+      </c>
+      <c r="E26">
+        <v>0.02941654608680103</v>
+      </c>
+      <c r="F26">
+        <v>0.007761419521674677</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6">
       <c r="A27" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -1069,150 +1231,216 @@
       <c r="D27">
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:4">
+      <c r="E27">
+        <v>0</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
       <c r="A28" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B28">
-        <v>-0.1342229159738421</v>
+        <v>0.1423531463442463</v>
       </c>
       <c r="C28">
-        <v>-0.01393466466433828</v>
+        <v>0.0233544137824567</v>
       </c>
       <c r="D28">
-        <v>-0.2666238629010778</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4">
+        <v>0.2606564003851777</v>
+      </c>
+      <c r="E28">
+        <v>-0.06890073136148628</v>
+      </c>
+      <c r="F28">
+        <v>-0.0040194474205157</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
       <c r="A29" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="B29">
-        <v>-0.02505354453522016</v>
+        <v>0.02845126741510649</v>
       </c>
       <c r="C29">
-        <v>-0.009575482050683677</v>
+        <v>0.008806494695472801</v>
       </c>
       <c r="D29">
-        <v>0.02786392941068247</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4">
+        <v>-0.03018829933489272</v>
+      </c>
+      <c r="E29">
+        <v>0.01279813533131415</v>
+      </c>
+      <c r="F29">
+        <v>0.01336776995499819</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
       <c r="A30" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="B30">
-        <v>-0.06135946052702575</v>
+        <v>0.05860091388251174</v>
       </c>
       <c r="C30">
-        <v>-0.008807916152838918</v>
+        <v>0.002710819622140023</v>
       </c>
       <c r="D30">
-        <v>0.07563835629310783</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4">
+        <v>-0.08743424880752061</v>
+      </c>
+      <c r="E30">
+        <v>0.01402849404884295</v>
+      </c>
+      <c r="F30">
+        <v>-0.07930831648943416</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
       <c r="A31" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B31">
-        <v>-0.05045869824008298</v>
+        <v>0.05154372337550334</v>
       </c>
       <c r="C31">
-        <v>-0.01727778574153551</v>
+        <v>0.01612726726830343</v>
       </c>
       <c r="D31">
-        <v>0.02147390998792634</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4">
+        <v>-0.02453491938090621</v>
+      </c>
+      <c r="E31">
+        <v>0.02857247550113653</v>
+      </c>
+      <c r="F31">
+        <v>0.0001232890762737575</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
       <c r="A32" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="B32">
-        <v>-0.04816538150618536</v>
+        <v>0.05234854682200334</v>
       </c>
       <c r="C32">
-        <v>-0.002574704457075852</v>
+        <v>-0.001340776414272994</v>
       </c>
       <c r="D32">
-        <v>0.02582041777535449</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4">
+        <v>-0.03451035321693244</v>
+      </c>
+      <c r="E32">
+        <v>0.03329687533816216</v>
+      </c>
+      <c r="F32">
+        <v>-0.00357847930390057</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
       <c r="A33" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B33">
-        <v>-0.09015242947230172</v>
+        <v>0.08933928608702886</v>
       </c>
       <c r="C33">
-        <v>-0.01315752573426184</v>
+        <v>0.007026168782041998</v>
       </c>
       <c r="D33">
-        <v>0.08802100170795685</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4">
+        <v>-0.1032083870374565</v>
+      </c>
+      <c r="E33">
+        <v>0.04653103251579589</v>
+      </c>
+      <c r="F33">
+        <v>-0.04371682521477172</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="B34">
-        <v>-0.06883056398272532</v>
+        <v>0.06748591056105509</v>
       </c>
       <c r="C34">
-        <v>-0.01556927900929381</v>
+        <v>0.01053061584933932</v>
       </c>
       <c r="D34">
-        <v>0.0966178109664642</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4">
+        <v>-0.1092108342510396</v>
+      </c>
+      <c r="E34">
+        <v>0.03579629612026133</v>
+      </c>
+      <c r="F34">
+        <v>-0.03507405535337619</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
       <c r="A35" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B35">
-        <v>-0.02508618350131159</v>
+        <v>0.02660626312392309</v>
       </c>
       <c r="C35">
-        <v>-0.003692427400710592</v>
+        <v>0.003034242854322674</v>
       </c>
       <c r="D35">
-        <v>0.00839100215011861</v>
-      </c>
-    </row>
-    <row r="36" spans="1:4">
+        <v>-0.0122117805496933</v>
+      </c>
+      <c r="E35">
+        <v>0.01277000712509547</v>
+      </c>
+      <c r="F35">
+        <v>-0.0002632155984569666</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="B36">
-        <v>-0.02569633751921777</v>
+        <v>0.02789962972657748</v>
       </c>
       <c r="C36">
-        <v>-0.007638840769365778</v>
+        <v>0.006904741121104395</v>
       </c>
       <c r="D36">
-        <v>0.0384397751601502</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
+        <v>-0.03897316274405023</v>
+      </c>
+      <c r="E36">
+        <v>0.01683120577531081</v>
+      </c>
+      <c r="F36">
+        <v>-0.0142120670175258</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>0.001423273007494042</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>-0.0008408517572640411</v>
       </c>
       <c r="D37">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
+        <v>-0.002812415498938608</v>
+      </c>
+      <c r="E37">
+        <v>-0.000117902803496413</v>
+      </c>
+      <c r="F37">
+        <v>0.001724877943855088</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B38">
         <v>0</v>
@@ -1223,52 +1451,76 @@
       <c r="D38">
         <v>0</v>
       </c>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="E38">
+        <v>0</v>
+      </c>
+      <c r="F38">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="B39">
-        <v>-0.1127057516427802</v>
+        <v>0.1013210545370296</v>
       </c>
       <c r="C39">
-        <v>-0.02332355941434816</v>
+        <v>0.01628984772629083</v>
       </c>
       <c r="D39">
-        <v>0.1478097331579436</v>
-      </c>
-    </row>
-    <row r="40" spans="1:4">
+        <v>-0.150657157685557</v>
+      </c>
+      <c r="E39">
+        <v>0.05931078802377855</v>
+      </c>
+      <c r="F39">
+        <v>-0.02218067338148631</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
       <c r="A40" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="B40">
-        <v>-0.03813202730505669</v>
+        <v>0.04349910677015017</v>
       </c>
       <c r="C40">
-        <v>-0.009174044421779161</v>
+        <v>0.00759104966514852</v>
       </c>
       <c r="D40">
-        <v>0.02399334306920848</v>
-      </c>
-    </row>
-    <row r="41" spans="1:4">
+        <v>-0.03296748734641426</v>
+      </c>
+      <c r="E40">
+        <v>0.002370959020983173</v>
+      </c>
+      <c r="F40">
+        <v>0.01677235523806482</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="B41">
-        <v>-0.02481868457348239</v>
+        <v>0.02717240671846146</v>
       </c>
       <c r="C41">
-        <v>-0.007350717928990973</v>
+        <v>0.00682228863321318</v>
       </c>
       <c r="D41">
-        <v>0.009226183465808524</v>
-      </c>
-    </row>
-    <row r="42" spans="1:4">
+        <v>-0.01096635898586436</v>
+      </c>
+      <c r="E41">
+        <v>0.01186031011670185</v>
+      </c>
+      <c r="F41">
+        <v>0.007419970214845022</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="1" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B42">
         <v>0</v>
@@ -1279,38 +1531,56 @@
       <c r="D42">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:4">
+      <c r="E42">
+        <v>0</v>
+      </c>
+      <c r="F42">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
       <c r="A43" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="B43">
-        <v>-0.04198912951377634</v>
+        <v>0.04009014028511637</v>
       </c>
       <c r="C43">
-        <v>-0.008307372559688483</v>
+        <v>0.007689087163827981</v>
       </c>
       <c r="D43">
-        <v>0.01776661956539901</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
+        <v>-0.01934382836462508</v>
+      </c>
+      <c r="E43">
+        <v>0.02550510679848485</v>
+      </c>
+      <c r="F43">
+        <v>0.01572688793169154</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
       <c r="A44" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B44">
-        <v>-0.069644222735935</v>
+        <v>0.07840260520598404</v>
       </c>
       <c r="C44">
-        <v>-0.02491274074114952</v>
+        <v>0.01954291032573416</v>
       </c>
       <c r="D44">
-        <v>0.0978072687209736</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
+        <v>-0.09656909578458159</v>
+      </c>
+      <c r="E44">
+        <v>0.06161844892743426</v>
+      </c>
+      <c r="F44">
+        <v>-0.1694868497823932</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
       <c r="A45" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1321,80 +1591,116 @@
       <c r="D45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:4">
+      <c r="E45">
+        <v>0</v>
+      </c>
+      <c r="F45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
       <c r="A46" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B46">
-        <v>-0.02170196323260757</v>
+        <v>0.02485757947325259</v>
       </c>
       <c r="C46">
-        <v>-0.004424148453438742</v>
+        <v>0.003771640687151362</v>
       </c>
       <c r="D46">
-        <v>0.009678354907229582</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
+        <v>-0.0128751832666899</v>
+      </c>
+      <c r="E46">
+        <v>0.02737542103332567</v>
+      </c>
+      <c r="F46">
+        <v>0.005616583447071684</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
       <c r="A47" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="B47">
-        <v>-0.05201812613604286</v>
+        <v>0.05169422012166391</v>
       </c>
       <c r="C47">
-        <v>-0.004941526742069795</v>
+        <v>0.004350455812363427</v>
       </c>
       <c r="D47">
-        <v>0.006733339203840148</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
+        <v>-0.01077171540589059</v>
+      </c>
+      <c r="E47">
+        <v>0.02259540316639687</v>
+      </c>
+      <c r="F47">
+        <v>0.0319185530322633</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
       <c r="A48" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="B48">
-        <v>-0.04811194984613987</v>
+        <v>0.05094022449571278</v>
       </c>
       <c r="C48">
-        <v>-0.004802238021018109</v>
+        <v>0.0022830217895088</v>
       </c>
       <c r="D48">
-        <v>0.04658137678382181</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
+        <v>-0.05017986698835904</v>
+      </c>
+      <c r="E48">
+        <v>-0.004511954934369828</v>
+      </c>
+      <c r="F48">
+        <v>-0.01251351034012252</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
       <c r="A49" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="B49">
-        <v>-0.2003470908854419</v>
+        <v>0.2000410726453455</v>
       </c>
       <c r="C49">
-        <v>-0.02248776265666266</v>
+        <v>0.02062118581672486</v>
       </c>
       <c r="D49">
-        <v>-0.01204890872632979</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4">
+        <v>0.004161023409028924</v>
+      </c>
+      <c r="E49">
+        <v>0.03338493036734082</v>
+      </c>
+      <c r="F49">
+        <v>-0.0492332193340247</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
       <c r="A50" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="B50">
-        <v>-0.04971310746390543</v>
+        <v>0.0518409995765051</v>
       </c>
       <c r="C50">
-        <v>-0.01324218324458939</v>
+        <v>0.01179467890208006</v>
       </c>
       <c r="D50">
-        <v>0.02050749982990878</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
+        <v>-0.02290590771826183</v>
+      </c>
+      <c r="E50">
+        <v>0.02947980146475332</v>
+      </c>
+      <c r="F50">
+        <v>-0.01014695271054821</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
       <c r="A51" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B51">
         <v>0</v>
@@ -1405,80 +1711,116 @@
       <c r="D51">
         <v>0</v>
       </c>
-    </row>
-    <row r="52" spans="1:4">
+      <c r="E51">
+        <v>0</v>
+      </c>
+      <c r="F51">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
       <c r="A52" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="B52">
-        <v>-0.1556977675906817</v>
+        <v>0.1492108097541599</v>
       </c>
       <c r="C52">
-        <v>-0.02090355721525284</v>
+        <v>0.01906310967373145</v>
       </c>
       <c r="D52">
-        <v>0.04271414189038179</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4">
+        <v>-0.04186192996564754</v>
+      </c>
+      <c r="E52">
+        <v>0.0223672468973347</v>
+      </c>
+      <c r="F52">
+        <v>-0.0423772015261771</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
       <c r="A53" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B53">
-        <v>-0.1746914467597718</v>
+        <v>0.1694798838736298</v>
       </c>
       <c r="C53">
-        <v>-0.02144177613592787</v>
+        <v>0.02193693091821239</v>
       </c>
       <c r="D53">
-        <v>0.005985299581440579</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
+        <v>-0.005158653638993325</v>
+      </c>
+      <c r="E53">
+        <v>0.02983481323319093</v>
+      </c>
+      <c r="F53">
+        <v>-0.07506008635499638</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
       <c r="A54" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="B54">
-        <v>-0.01647693010527836</v>
+        <v>0.01942510299395182</v>
       </c>
       <c r="C54">
-        <v>-0.01206042790984361</v>
+        <v>0.01095152372140881</v>
       </c>
       <c r="D54">
-        <v>0.02991358409168812</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
+        <v>-0.03284771771930134</v>
+      </c>
+      <c r="E54">
+        <v>0.02081135205372394</v>
+      </c>
+      <c r="F54">
+        <v>0.002766104583951633</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
       <c r="A55" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="B55">
-        <v>-0.1174894333458585</v>
+        <v>0.1159558380199239</v>
       </c>
       <c r="C55">
-        <v>-0.01901226614900751</v>
+        <v>0.01908154238390817</v>
       </c>
       <c r="D55">
-        <v>0.005272428896422745</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4">
+        <v>-0.007853104856205165</v>
+      </c>
+      <c r="E55">
+        <v>0.02536202956622267</v>
+      </c>
+      <c r="F55">
+        <v>-0.04672341852832032</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="B56">
-        <v>-0.181044240227304</v>
+        <v>0.1759444605993631</v>
       </c>
       <c r="C56">
-        <v>-0.01950792631007844</v>
+        <v>0.01999337364030918</v>
       </c>
       <c r="D56">
-        <v>-0.004871628329063593</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4">
+        <v>0.0034703358317138</v>
+      </c>
+      <c r="E56">
+        <v>0.03216021368016964</v>
+      </c>
+      <c r="F56">
+        <v>-0.05494680788342712</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
       <c r="A57" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="B57">
         <v>0</v>
@@ -1489,262 +1831,376 @@
       <c r="D57">
         <v>0</v>
       </c>
-    </row>
-    <row r="58" spans="1:4">
+      <c r="E57">
+        <v>0</v>
+      </c>
+      <c r="F57">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B58">
-        <v>-0.04938735994625302</v>
+        <v>0.04690325012770693</v>
       </c>
       <c r="C58">
-        <v>-0.005710809047869261</v>
+        <v>0.000369100023496809</v>
       </c>
       <c r="D58">
-        <v>0.06424746462821465</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4">
+        <v>-0.07590377718325622</v>
+      </c>
+      <c r="E58">
+        <v>0.03700456282446576</v>
+      </c>
+      <c r="F58">
+        <v>0.03676725153869027</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
       <c r="A59" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="B59">
-        <v>-0.1619648722419569</v>
+        <v>0.1670323125013228</v>
       </c>
       <c r="C59">
-        <v>-0.01560935582090372</v>
+        <v>0.02363521514524641</v>
       </c>
       <c r="D59">
-        <v>-0.2240827913100879</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4">
+        <v>0.2178736033038018</v>
+      </c>
+      <c r="E59">
+        <v>-0.04950392980401015</v>
+      </c>
+      <c r="F59">
+        <v>0.03942939189593454</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
       <c r="A60" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B60">
-        <v>-0.2383260683669141</v>
+        <v>0.2302375329400812</v>
       </c>
       <c r="C60">
-        <v>-0.003356199452013086</v>
+        <v>0.0003120279683045569</v>
       </c>
       <c r="D60">
-        <v>0.03738877968982066</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
+        <v>-0.03919257396235545</v>
+      </c>
+      <c r="E60">
+        <v>0.006642528753654661</v>
+      </c>
+      <c r="F60">
+        <v>-0.005984822058490213</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B61">
-        <v>-0.08365349984110877</v>
+        <v>0.07716452384388202</v>
       </c>
       <c r="C61">
-        <v>-0.01714406848914395</v>
+        <v>0.01154372896640181</v>
       </c>
       <c r="D61">
-        <v>0.1079706865574184</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
+        <v>-0.1155553991420429</v>
+      </c>
+      <c r="E61">
+        <v>0.03779013019847816</v>
+      </c>
+      <c r="F61">
+        <v>-0.008581616496386654</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
       <c r="A62" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B62">
-        <v>-0.1727119683833195</v>
+        <v>0.1693244288856069</v>
       </c>
       <c r="C62">
-        <v>-0.02358526611561153</v>
+        <v>0.02281252912123253</v>
       </c>
       <c r="D62">
-        <v>0.0002511423515508118</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
+        <v>-0.005784098737101179</v>
+      </c>
+      <c r="E62">
+        <v>0.03410064123883084</v>
+      </c>
+      <c r="F62">
+        <v>-0.04166432273949169</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
       <c r="A63" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="B63">
-        <v>-0.04150560705209345</v>
+        <v>0.04553971340256737</v>
       </c>
       <c r="C63">
-        <v>-0.005455823381748888</v>
+        <v>0.001725964851918573</v>
       </c>
       <c r="D63">
-        <v>0.04858789378891758</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
+        <v>-0.06016525532266558</v>
+      </c>
+      <c r="E63">
+        <v>0.02390310453907279</v>
+      </c>
+      <c r="F63">
+        <v>-0.0009142119222796526</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
       <c r="A64" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B64">
-        <v>-0.1134349066355746</v>
+        <v>0.110959970406092</v>
       </c>
       <c r="C64">
-        <v>-0.0159757069249267</v>
+        <v>0.01282463420278925</v>
       </c>
       <c r="D64">
-        <v>0.0324381152362049</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
+        <v>-0.04265912881057683</v>
+      </c>
+      <c r="E64">
+        <v>0.02409409074102629</v>
+      </c>
+      <c r="F64">
+        <v>-0.02583922315953407</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
       <c r="A65" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B65">
-        <v>-0.1439177706019474</v>
+        <v>0.1518058920480357</v>
       </c>
       <c r="C65">
-        <v>-0.0355261212057088</v>
+        <v>0.03567796940839555</v>
       </c>
       <c r="D65">
-        <v>-0.05907440482973224</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
+        <v>0.04652418357862766</v>
+      </c>
+      <c r="E65">
+        <v>0.006522793787126112</v>
+      </c>
+      <c r="F65">
+        <v>-0.03778033413473705</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
       <c r="A66" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B66">
-        <v>-0.1359030230308824</v>
+        <v>0.1219603368026565</v>
       </c>
       <c r="C66">
-        <v>-0.02180719790582142</v>
+        <v>0.01478194501684868</v>
       </c>
       <c r="D66">
-        <v>0.1289772016310188</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
+        <v>-0.1391238149186252</v>
+      </c>
+      <c r="E66">
+        <v>0.06460422187620364</v>
+      </c>
+      <c r="F66">
+        <v>-0.02830077638392393</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6">
       <c r="A67" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="B67">
-        <v>-0.06310220968047629</v>
+        <v>0.05568069302215008</v>
       </c>
       <c r="C67">
-        <v>-0.006047039464026359</v>
+        <v>0.003364992407207151</v>
       </c>
       <c r="D67">
-        <v>0.05410376640818071</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
+        <v>-0.05780539303368734</v>
+      </c>
+      <c r="E67">
+        <v>0.01890833583913781</v>
+      </c>
+      <c r="F67">
+        <v>0.03370509369736388</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
       <c r="A68" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B68">
-        <v>-0.107067004010258</v>
+        <v>0.116889823878565</v>
       </c>
       <c r="C68">
-        <v>-0.02375204201832257</v>
+        <v>0.03408573476440101</v>
       </c>
       <c r="D68">
-        <v>-0.2643240939368764</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
+        <v>0.2611393205137602</v>
+      </c>
+      <c r="E68">
+        <v>-0.0891308338167373</v>
+      </c>
+      <c r="F68">
+        <v>0.0005766081904144307</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
       <c r="A69" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B69">
-        <v>-0.0399666943248064</v>
+        <v>0.03869019947536344</v>
       </c>
       <c r="C69">
-        <v>-0.002324296701935289</v>
+        <v>0.001442872134327354</v>
       </c>
       <c r="D69">
-        <v>0.006382896464003188</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
+        <v>-0.008462792527922612</v>
+      </c>
+      <c r="E69">
+        <v>0.02433922019910429</v>
+      </c>
+      <c r="F69">
+        <v>0.0003137121668868611</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
       <c r="A70" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B70">
-        <v>-0.06599107772205301</v>
+        <v>0.06709886815248572</v>
       </c>
       <c r="C70">
-        <v>0.02446408777292717</v>
+        <v>-0.02673727361395476</v>
       </c>
       <c r="D70">
-        <v>0.01690102442605328</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
+        <v>-0.02616472786675129</v>
+      </c>
+      <c r="E70">
+        <v>-0.0298223821193387</v>
+      </c>
+      <c r="F70">
+        <v>0.1813569342207855</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6">
       <c r="A71" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B71">
-        <v>-0.1262092286342032</v>
+        <v>0.1368806562064653</v>
       </c>
       <c r="C71">
-        <v>-0.02844539668482371</v>
+        <v>0.0387301419584969</v>
       </c>
       <c r="D71">
-        <v>-0.281073347120318</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
+        <v>0.2710126213746065</v>
+      </c>
+      <c r="E71">
+        <v>-0.09834716537448339</v>
+      </c>
+      <c r="F71">
+        <v>-0.005241944347262948</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
       <c r="A72" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B72">
-        <v>-0.1377762603213283</v>
+        <v>0.1445806547677068</v>
       </c>
       <c r="C72">
-        <v>-0.0282896041875684</v>
+        <v>0.02861850574253372</v>
       </c>
       <c r="D72">
-        <v>0.001375182029839438</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4">
+        <v>0.004840395207453765</v>
+      </c>
+      <c r="E72">
+        <v>0.03811177090287569</v>
+      </c>
+      <c r="F72">
+        <v>-0.02818135083786922</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
       <c r="A73" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B73">
-        <v>-0.2048688390819604</v>
+        <v>0.2036164078351546</v>
       </c>
       <c r="C73">
-        <v>-0.01748700744224943</v>
+        <v>0.01374299204399714</v>
       </c>
       <c r="D73">
-        <v>0.008738223365591515</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
+        <v>-0.01933201096874967</v>
+      </c>
+      <c r="E73">
+        <v>0.06736200840202025</v>
+      </c>
+      <c r="F73">
+        <v>-0.04336039842254936</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
       <c r="A74" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B74">
-        <v>-0.09283567688712857</v>
+        <v>0.09403337964546274</v>
       </c>
       <c r="C74">
-        <v>-0.01451745762591155</v>
+        <v>0.01411090423678791</v>
       </c>
       <c r="D74">
-        <v>0.01602726859291296</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
+        <v>-0.01686871995261519</v>
+      </c>
+      <c r="E74">
+        <v>0.04380477145070973</v>
+      </c>
+      <c r="F74">
+        <v>-0.05275967155581016</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
       <c r="A75" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B75">
-        <v>-0.1340386374606513</v>
+        <v>0.1262326503785412</v>
       </c>
       <c r="C75">
-        <v>-0.0313205936164879</v>
+        <v>0.02977657977462182</v>
       </c>
       <c r="D75">
-        <v>0.02441063226203075</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
+        <v>-0.02887632228083015</v>
+      </c>
+      <c r="E75">
+        <v>0.05674038005333681</v>
+      </c>
+      <c r="F75">
+        <v>-0.02187313634286087</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
       <c r="A76" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B76">
         <v>0</v>
@@ -1755,360 +2211,516 @@
       <c r="D76">
         <v>0</v>
       </c>
-    </row>
-    <row r="77" spans="1:4">
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
       <c r="A77" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B77">
-        <v>-0.08229384919092493</v>
+        <v>0.09061738647407223</v>
       </c>
       <c r="C77">
-        <v>-0.01464548031132254</v>
+        <v>0.008672375779766199</v>
       </c>
       <c r="D77">
-        <v>0.1062934447290436</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
+        <v>-0.1146490045567168</v>
+      </c>
+      <c r="E77">
+        <v>0.04545501683369376</v>
+      </c>
+      <c r="F77">
+        <v>-0.03413955372113685</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
       <c r="A78" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B78">
-        <v>-0.09935454554897487</v>
+        <v>0.1008126184314546</v>
       </c>
       <c r="C78">
-        <v>-0.04419102827867236</v>
+        <v>0.03915943517717793</v>
       </c>
       <c r="D78">
-        <v>0.1110863322286102</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
+        <v>-0.1103608223445424</v>
+      </c>
+      <c r="E78">
+        <v>0.07550732710700603</v>
+      </c>
+      <c r="F78">
+        <v>-0.05263071675074563</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
       <c r="A79" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B79">
-        <v>-0.1654448951421597</v>
+        <v>0.1631802684224431</v>
       </c>
       <c r="C79">
-        <v>-0.02610767570738302</v>
+        <v>0.02501185763065836</v>
       </c>
       <c r="D79">
-        <v>0.007286057344737573</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
+        <v>-0.01208453453695253</v>
+      </c>
+      <c r="E79">
+        <v>0.04386040107295983</v>
+      </c>
+      <c r="F79">
+        <v>-0.01292955032605289</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
       <c r="A80" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B80">
-        <v>-0.08075790575203753</v>
+        <v>0.07956572776029919</v>
       </c>
       <c r="C80">
-        <v>-0.001946742327452448</v>
+        <v>-0.0003937272766175481</v>
       </c>
       <c r="D80">
-        <v>0.05531547614848405</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
+        <v>-0.05344080520671147</v>
+      </c>
+      <c r="E80">
+        <v>0.03260485743170417</v>
+      </c>
+      <c r="F80">
+        <v>0.02543843204782636</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6">
       <c r="A81" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B81">
-        <v>-0.1202121194801766</v>
+        <v>0.1166000391352888</v>
       </c>
       <c r="C81">
-        <v>-0.033302821637577</v>
+        <v>0.03315765198920214</v>
       </c>
       <c r="D81">
-        <v>0.01232065723839937</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
+        <v>-0.01320538952052725</v>
+      </c>
+      <c r="E81">
+        <v>0.05390197393141487</v>
+      </c>
+      <c r="F81">
+        <v>-0.01821078728190487</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6">
       <c r="A82" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B82">
-        <v>-0.166107556085606</v>
+        <v>0.165804919621461</v>
       </c>
       <c r="C82">
-        <v>-0.0266934650605612</v>
+        <v>0.02745482062768909</v>
       </c>
       <c r="D82">
-        <v>0.007062569794376727</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>-0.002301934844032209</v>
+      </c>
+      <c r="E82">
+        <v>0.02820324399385863</v>
+      </c>
+      <c r="F82">
+        <v>-0.08224270905078614</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6">
       <c r="A83" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B83">
-        <v>-0.0633189034780549</v>
+        <v>0.05736561924269386</v>
       </c>
       <c r="C83">
-        <v>-0.005776680896871514</v>
+        <v>0.003461580058623129</v>
       </c>
       <c r="D83">
-        <v>0.04243519982655065</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
+        <v>-0.04732756704078011</v>
+      </c>
+      <c r="E83">
+        <v>0.001145981779960021</v>
+      </c>
+      <c r="F83">
+        <v>0.03570258865522915</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6">
       <c r="A84" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B84">
-        <v>-0.06233640245014947</v>
+        <v>0.05689517288106457</v>
       </c>
       <c r="C84">
-        <v>-0.01408435121262955</v>
+        <v>0.01110238291677253</v>
       </c>
       <c r="D84">
-        <v>0.07020247132246249</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
+        <v>-0.07215539053523697</v>
+      </c>
+      <c r="E84">
+        <v>0.01420325175618663</v>
+      </c>
+      <c r="F84">
+        <v>-0.01589840983134543</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6">
       <c r="A85" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B85">
-        <v>-0.1390149700486528</v>
+        <v>0.1347234880113976</v>
       </c>
       <c r="C85">
-        <v>-0.03017420296698545</v>
+        <v>0.02987923058871272</v>
       </c>
       <c r="D85">
-        <v>0.008153830319446373</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
+        <v>-0.009509352390233436</v>
+      </c>
+      <c r="E85">
+        <v>0.03636370562945669</v>
+      </c>
+      <c r="F85">
+        <v>-0.04804055978176135</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6">
       <c r="A86" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B86">
-        <v>-0.1011989599772673</v>
+        <v>0.09368390663713008</v>
       </c>
       <c r="C86">
-        <v>0.002601641639211727</v>
+        <v>-0.005379838123649192</v>
       </c>
       <c r="D86">
-        <v>0.01200546058824689</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
+        <v>-0.05309205904937959</v>
+      </c>
+      <c r="E86">
+        <v>0.226195801520778</v>
+      </c>
+      <c r="F86">
+        <v>0.8975161166543413</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6">
       <c r="A87" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B87">
-        <v>-0.0967809054909064</v>
+        <v>0.09279418481440051</v>
       </c>
       <c r="C87">
-        <v>-0.02849207939871094</v>
+        <v>0.01968212807073975</v>
       </c>
       <c r="D87">
-        <v>0.07383870951079001</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+        <v>-0.09526561769638618</v>
+      </c>
+      <c r="E87">
+        <v>-0.0522275048943738</v>
+      </c>
+      <c r="F87">
+        <v>-0.05060048227596971</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6">
       <c r="A88" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B88">
-        <v>-0.06174412240441406</v>
+        <v>0.06081372798591493</v>
       </c>
       <c r="C88">
-        <v>-0.00544142294180203</v>
+        <v>0.002787307158680598</v>
       </c>
       <c r="D88">
-        <v>0.05121551055481472</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
+        <v>-0.04998475519775698</v>
+      </c>
+      <c r="E88">
+        <v>0.02388460681527213</v>
+      </c>
+      <c r="F88">
+        <v>-0.01496775983380842</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6">
       <c r="A89" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B89">
-        <v>-0.1181723899291549</v>
+        <v>0.1266936944653428</v>
       </c>
       <c r="C89">
-        <v>-0.004964115977416872</v>
+        <v>0.01401150357650089</v>
       </c>
       <c r="D89">
-        <v>-0.2461818313557661</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
+        <v>0.2436557427165513</v>
+      </c>
+      <c r="E89">
+        <v>-0.0926583465964772</v>
+      </c>
+      <c r="F89">
+        <v>0.008284147503487594</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6">
       <c r="A90" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B90">
-        <v>-0.1388800919592431</v>
+        <v>0.1522170942206596</v>
       </c>
       <c r="C90">
-        <v>-0.02445096721710602</v>
+        <v>0.03550071394477546</v>
       </c>
       <c r="D90">
-        <v>-0.2651009564583094</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
+        <v>0.2679061206264972</v>
+      </c>
+      <c r="E90">
+        <v>-0.1139141244506287</v>
+      </c>
+      <c r="F90">
+        <v>0.01021470752528489</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6">
       <c r="A91" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B91">
-        <v>-0.1213830422169717</v>
+        <v>0.1205062478372226</v>
       </c>
       <c r="C91">
-        <v>-0.02092592379034567</v>
+        <v>0.02148999063951349</v>
       </c>
       <c r="D91">
-        <v>-0.01841310851104333</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
+        <v>0.01690188741408688</v>
+      </c>
+      <c r="E91">
+        <v>0.05376067124785502</v>
+      </c>
+      <c r="F91">
+        <v>0.001674763152464004</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6">
       <c r="A92" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B92">
-        <v>-0.1398481129861117</v>
+        <v>0.1462098905265751</v>
       </c>
       <c r="C92">
-        <v>-0.01535478700671161</v>
+        <v>0.02694062867078443</v>
       </c>
       <c r="D92">
-        <v>-0.2972241308267306</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
+        <v>0.2945963910277004</v>
+      </c>
+      <c r="E92">
+        <v>-0.1037522963211797</v>
+      </c>
+      <c r="F92">
+        <v>0.01979326934914021</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6">
       <c r="A93" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B93">
-        <v>-0.1408386786840487</v>
+        <v>0.1529364045752669</v>
       </c>
       <c r="C93">
-        <v>-0.02071452890634929</v>
+        <v>0.0304721808356771</v>
       </c>
       <c r="D93">
-        <v>-0.2666922178259588</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
+        <v>0.2641645528963986</v>
+      </c>
+      <c r="E93">
+        <v>-0.07641251476595422</v>
+      </c>
+      <c r="F93">
+        <v>-0.001414460934625748</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6">
       <c r="A94" s="1" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B94">
-        <v>-0.1342602487637841</v>
+        <v>0.1268094006529951</v>
       </c>
       <c r="C94">
-        <v>-0.02781888102942901</v>
+        <v>0.0259629959759435</v>
       </c>
       <c r="D94">
-        <v>0.03822178385486071</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
+        <v>-0.0399458104736333</v>
+      </c>
+      <c r="E94">
+        <v>0.05680377591445818</v>
+      </c>
+      <c r="F94">
+        <v>-0.03291289778598529</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6">
       <c r="A95" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B95">
-        <v>-0.1249145864691937</v>
+        <v>0.1280685925208078</v>
       </c>
       <c r="C95">
-        <v>-0.009987271526857609</v>
+        <v>0.004199598251889771</v>
       </c>
       <c r="D95">
-        <v>0.0879086573428825</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
+        <v>-0.09801673732372465</v>
+      </c>
+      <c r="E95">
+        <v>0.05480628817409836</v>
+      </c>
+      <c r="F95">
+        <v>-0.002347441106093992</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6">
       <c r="A96" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B96">
-        <v>-0.1245723198049905</v>
+        <v>0.1186662071099944</v>
       </c>
       <c r="C96">
-        <v>0.9864713205657798</v>
+        <v>-0.9860829124742766</v>
       </c>
       <c r="D96">
-        <v>-0.01656937387641695</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
+        <v>0.05224979426329377</v>
+      </c>
+      <c r="E96">
+        <v>0.05144620556256092</v>
+      </c>
+      <c r="F96">
+        <v>-0.04226521769200944</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6">
       <c r="A97" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B97">
-        <v>-0.1957983886751432</v>
+        <v>0.1971903642499445</v>
       </c>
       <c r="C97">
-        <v>0.003537612928641501</v>
+        <v>-0.004404237771693735</v>
       </c>
       <c r="D97">
-        <v>-0.01657492149786187</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
+        <v>0.02029106200076872</v>
+      </c>
+      <c r="E97">
+        <v>0.02575229949910274</v>
+      </c>
+      <c r="F97">
+        <v>0.1180690236864958</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6">
       <c r="A98" s="1" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B98">
-        <v>-0.1984955719515071</v>
+        <v>0.2048793369392528</v>
       </c>
       <c r="C98">
-        <v>-0.01185730369659848</v>
+        <v>0.008075731247222611</v>
       </c>
       <c r="D98">
-        <v>0.01158788263405133</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>-0.01646881833762288</v>
+      </c>
+      <c r="E98">
+        <v>-0.07476398415782089</v>
+      </c>
+      <c r="F98">
+        <v>0.09211086254597692</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6">
       <c r="A99" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B99">
-        <v>-0.05554980576848827</v>
+        <v>0.05538967457162622</v>
       </c>
       <c r="C99">
-        <v>0.001772818317650775</v>
+        <v>-0.003875023287742471</v>
       </c>
       <c r="D99">
-        <v>0.02908161148017568</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>-0.03840079183149005</v>
+      </c>
+      <c r="E99">
+        <v>0.02145674506533388</v>
+      </c>
+      <c r="F99">
+        <v>-0.004048363118192848</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6">
       <c r="A100" s="1" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B100">
-        <v>-0.1439462998508222</v>
+        <v>0.1309922362146771</v>
       </c>
       <c r="C100">
-        <v>0.03845617672675903</v>
+        <v>-0.0507883771087894</v>
       </c>
       <c r="D100">
-        <v>0.3969339683709313</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
+        <v>-0.3543025942995533</v>
+      </c>
+      <c r="E100">
+        <v>-0.8844119268516345</v>
+      </c>
+      <c r="F100">
+        <v>0.1514911840702605</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6">
       <c r="A101" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B101">
-        <v>-0.02503161103996344</v>
+        <v>0.02850862016689002</v>
       </c>
       <c r="C101">
-        <v>-0.00949918539596423</v>
+        <v>0.008836252466480218</v>
       </c>
       <c r="D101">
-        <v>0.02742736006406821</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
+        <v>-0.02982015122339771</v>
+      </c>
+      <c r="E101">
+        <v>0.01227325411738435</v>
+      </c>
+      <c r="F101">
+        <v>0.01472437978617893</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6">
       <c r="A102" s="1" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -2119,10 +2731,16 @@
       <c r="D102">
         <v>0</v>
       </c>
-    </row>
-    <row r="103" spans="1:4">
+      <c r="E102">
+        <v>0</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6">
       <c r="A103" s="1" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B103">
         <v>0</v>
@@ -2133,10 +2751,16 @@
       <c r="D103">
         <v>0</v>
       </c>
-    </row>
-    <row r="104" spans="1:4">
+      <c r="E103">
+        <v>0</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6">
       <c r="A104" s="1" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2145,6 +2769,12 @@
         <v>0</v>
       </c>
       <c r="D104">
+        <v>0</v>
+      </c>
+      <c r="E104">
+        <v>0</v>
+      </c>
+      <c r="F104">
         <v>0</v>
       </c>
     </row>
